--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF5061E-DA56-466E-886B-C3348843A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B425B4-C823-4C0D-AA76-06E9A6A11BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44250" yWindow="1275" windowWidth="13350" windowHeight="11835" xr2:uid="{66940968-C0B1-42D0-9343-0028903B9E93}"/>
+    <workbookView xWindow="15450" yWindow="1095" windowWidth="13350" windowHeight="11835" xr2:uid="{98B64D7C-C433-4A26-90AD-1EE8344833FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Sales for the last week</t>
+    <t>Sales for the last year (365 days)</t>
   </si>
   <si>
     <t>Medals</t>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA977109-1D89-40C3-987B-10A056354FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07001E-617E-4195-86AD-E4FFA63A1202}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -487,13 +487,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>49.75</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>60.97</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B425B4-C823-4C0D-AA76-06E9A6A11BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928C7F4D-F6E6-44C8-B4E7-055F58EDAA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="1095" windowWidth="13350" windowHeight="11835" xr2:uid="{98B64D7C-C433-4A26-90AD-1EE8344833FB}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{063E4F0E-0B3B-478F-A1F2-9A7F6F584C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Sales for the last year (365 days)</t>
+    <t>Sales for the last day</t>
   </si>
   <si>
     <t>Medals</t>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07001E-617E-4195-86AD-E4FFA63A1202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE1B7A7-E841-4DE4-A5B0-843300885EA6}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -487,13 +487,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>49.75</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>60.97</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>74.75</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928C7F4D-F6E6-44C8-B4E7-055F58EDAA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6989485F-80D9-44B0-ACE7-F0F2660DBDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{063E4F0E-0B3B-478F-A1F2-9A7F6F584C4D}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{B4938B14-FC98-42C2-9C16-C814952ED0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Sales for the last day</t>
+    <t>Sales for the last year (365 days)</t>
   </si>
   <si>
     <t>Medals</t>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE1B7A7-E841-4DE4-A5B0-843300885EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784291F4-110F-489D-89FD-507BBCFE38B6}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -487,13 +487,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>49.75</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>60.97</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6989485F-80D9-44B0-ACE7-F0F2660DBDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE445A1-F3F0-4700-BF4E-40B3C0F1A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{B4938B14-FC98-42C2-9C16-C814952ED0F1}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{62BE7923-426E-41E8-AB05-DF7052ED05D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Sales for the last year (365 days)</t>
+    <t>Sales for the last day</t>
   </si>
   <si>
     <t>Medals</t>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784291F4-110F-489D-89FD-507BBCFE38B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5696148B-2F8C-41CA-98D0-F0A38EA152AC}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -487,13 +487,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>49.75</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>60.97</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>74.75</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE445A1-F3F0-4700-BF4E-40B3C0F1A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E87C9612-B3B5-48F7-BBF0-7233E582A331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{62BE7923-426E-41E8-AB05-DF7052ED05D4}"/>
+    <workbookView xWindow="31050" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{C89B81C4-346E-4B73-912E-5CFDBE794343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5696148B-2F8C-41CA-98D0-F0A38EA152AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF62E7-E269-4022-8FC4-081E0C6AC64B}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E87C9612-B3B5-48F7-BBF0-7233E582A331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F59F77F4-2E3C-499B-8126-E3B1BDFAE438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{C89B81C4-346E-4B73-912E-5CFDBE794343}"/>
+    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{18CEED30-6C45-4D61-AE7B-C54024A76F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF62E7-E269-4022-8FC4-081E0C6AC64B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF24B2-419A-44BB-80C3-2C3F8F9A51DC}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF5061E-DA56-466E-886B-C3348843A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E0ADA0-2075-4557-B836-FA27DD98DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44250" yWindow="1275" windowWidth="13350" windowHeight="11835" xr2:uid="{66940968-C0B1-42D0-9343-0028903B9E93}"/>
+    <workbookView xWindow="-26490" yWindow="1005" windowWidth="22980" windowHeight="13770" xr2:uid="{F4131783-BFE1-4D6F-9080-F1D4D0F9195C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Sales for the last week</t>
+    <t>Sales for the last year (365 days)</t>
   </si>
   <si>
     <t>Medals</t>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA977109-1D89-40C3-987B-10A056354FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4029B001-F8F6-474C-9F8C-32DDF2256442}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -487,25 +487,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>100.4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1520.91</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>24.95</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>492.75</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="M3">
         <v>0</v>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E0ADA0-2075-4557-B836-FA27DD98DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9BB03F-A219-4663-947F-5030AE921641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="1005" windowWidth="22980" windowHeight="13770" xr2:uid="{F4131783-BFE1-4D6F-9080-F1D4D0F9195C}"/>
+    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{D762E2D8-A4B5-47C9-A73E-40C4A28A2176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Sales for the last year (365 days)</t>
+    <t>Sales for the last day</t>
   </si>
   <si>
     <t>Medals</t>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4029B001-F8F6-474C-9F8C-32DDF2256442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE461852-F707-4F18-9020-FC111D28DE57}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -487,25 +487,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100.4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1520.91</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.95</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>492.75</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>

--- a/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/SalesReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9BB03F-A219-4663-947F-5030AE921641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9857CC4E-D8AB-4B51-B0B5-4AD74CB7E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{D762E2D8-A4B5-47C9-A73E-40C4A28A2176}"/>
+    <workbookView xWindow="3285" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{1BDEC8AB-F88A-4A0C-AD48-1D3806E03B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE461852-F707-4F18-9020-FC111D28DE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35121DE1-5519-4DAF-9C83-38270D2F83CC}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>60.97</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>35.85</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.95</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>23.95</v>
       </c>
       <c r="M3">
         <v>0</v>
